--- a/PFOA inhalation Rat/Scenarios/AAFE values.xlsx
+++ b/PFOA inhalation Rat/Scenarios/AAFE values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eviepapakyriakopoulou/Documents/GitHub/PFAS_PBK_models/PFOA inhalation Rat/Scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45991C-313B-5A41-8C12-B243BAB052B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647B8F8-21F5-7745-AFCD-01F359C37E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-460" windowWidth="29400" windowHeight="18380" xr2:uid="{F71ABCD5-818B-7E43-AB3E-2B031150CC8B}"/>
+    <workbookView xWindow="38400" yWindow="-440" windowWidth="29400" windowHeight="16940" xr2:uid="{F71ABCD5-818B-7E43-AB3E-2B031150CC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Study &amp; Condition</t>
@@ -196,17 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,517 +536,515 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52266252-2068-0844-802E-60AC647AED44}">
   <dimension ref="A3:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="39.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.9965999999999999</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.3163719999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.5766</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>16.559999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.6840730000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.698</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1.52088</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1.604822</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.1499000000000001</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.2105999999999999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.3420999999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6.5155000000000003</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.1173999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.3738000000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.2981</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.5665</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.226</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>2.094023</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.9776</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0818000000000001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.6187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.3031999999999999</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.1806000000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.2565</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.1893</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.6471</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.2287999999999999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.3702000000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>2.449506</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2.4802650000000002</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.1860999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.3306</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5.1302149999999997</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.4310999999999998</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3.8612000000000002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3.0756999999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2.9266429999999999</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2.2264620000000002</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1.2608950000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1.141203</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1.2374449999999999</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.263336</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1.2925249999999999</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1.335942</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5.2390359999999996</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1.233832</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1.4270910000000001</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1.4805250000000001</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3.0260579999999999</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1.4428559999999999</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1.2620309999999999</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1.2556290000000001</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1.5140659999999999</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2.4055439999999999</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="E30" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4">
-        <v>3.7349399999999999</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B33" s="3">
+        <v>3.2315999999999998</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>31</v>
       </c>
-      <c r="E31" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4">
-        <v>2.822962</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B34" s="3">
+        <v>2.4548999999999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="E32" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3.471441</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B35" s="3">
+        <v>1.5873999999999999</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>33</v>
       </c>
-      <c r="E33" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2.406253</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B36" s="3">
+        <v>1.1874</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1.868487</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1.2065269999999999</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B37" s="3">
+        <v>2.6154999999999999</v>
+      </c>
+      <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="1">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2.3311480000000002</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
+      <c r="B40">
         <f>AVERAGE(B4:B37)</f>
-        <v>2.1543343333333329</v>
+        <v>2.1051588235294112</v>
       </c>
     </row>
   </sheetData>
